--- a/Assn1/WriteupCharts/BlockSizeOneChart.xlsx
+++ b/Assn1/WriteupCharts/BlockSizeOneChart.xlsx
@@ -32,12 +32,6 @@
     <t>Throughput</t>
   </si>
   <si>
-    <t>Throughput Left Interval</t>
-  </si>
-  <si>
-    <t>Throughput Right Interval</t>
-  </si>
-  <si>
     <t>Average Transmissions Per Frame</t>
   </si>
   <si>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>BlocksSize</t>
+  </si>
+  <si>
+    <t>Throughput Lower Bound</t>
+  </si>
+  <si>
+    <t>Throughput Upper Bound</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput Left Interval</c:v>
+                  <c:v>Throughput Lower Bound</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -908,7 +908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput Right Interval</c:v>
+                  <c:v>Throughput Upper Bound</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1259,8 +1259,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344572096"/>
-        <c:axId val="344570136"/>
+        <c:axId val="341079752"/>
+        <c:axId val="341088768"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1483,7 +1483,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344572096"/>
+        <c:axId val="341079752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,12 +1607,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344570136"/>
+        <c:crossAx val="341088768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344570136"/>
+        <c:axId val="341088768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1726,7 +1726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344572096"/>
+        <c:crossAx val="341079752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2665,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2679,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2740,19 +2740,19 @@
         <v>1.0052169561386108</v>
       </c>
       <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
